--- a/topic-06-Classification/book/archives/Forecasting-Soldier-Performance-single-varsolution.xlsx
+++ b/topic-06-Classification/book/archives/Forecasting-Soldier-Performance-single-varsolution.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmullally\Documents\Analytics\business-analytics-2-2019\private-site-uk\topic-06-Classification\book-a\archives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brenda_MJtech\Documents\Analytics\business-analytics-ii-2019\topic-06-Classification\book\archives\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFC7FDF-3044-4BC9-922E-5450CEF76F7A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecasting Soldier Performance" sheetId="1" r:id="rId1"/>
     <sheet name="resit exam solution" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Soldier ID</t>
   </si>
@@ -150,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -249,22 +256,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,37 +415,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.16666666666666666</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.16666666666666666</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.83333333333333337</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
@@ -455,37 +460,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
@@ -695,7 +700,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1000,7 +1004,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1008,6 +1011,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2557,882 +2561,679 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="6" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.125" customWidth="1"/>
+    <col min="8" max="9" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.09765625" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="22.625" customWidth="1"/>
+    <col min="12" max="12" width="22.59765625" customWidth="1"/>
     <col min="13" max="13" width="10.5" customWidth="1"/>
-    <col min="16" max="16" width="19.875" customWidth="1"/>
+    <col min="16" max="16" width="19.8984375" customWidth="1"/>
     <col min="20" max="20" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>73</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>E2/$E$16</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>F2/$F$16</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>72</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>E3/$E$16</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>F3/$F$16</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I3">
+        <f>(G4*H4)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>E4/$E$16</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H4">
+        <f>F4/$F$16</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>70</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f>E5/$E$16</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H5">
+        <f>F5/$F$16</f>
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>68</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f>E6/$E$16</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H6">
+        <f>F6/$F$16</f>
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <f>(G7-G5)*H6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f>E7/$E$16</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H7">
+        <f>F7/$F$16</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <f>E8/$E$16</f>
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <f>F8/$F$16</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I8">
+        <f>(G8-G7)*H8</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>64</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <f>E9/$E$16</f>
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <f>F9/$F$16</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <f>E10/$E$16</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H10">
+        <f>F10/$F$16</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I10">
+        <f>(G11-G9)*H10</f>
+        <v>0.27777777777777785</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <f>E11/$E$16</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H11">
+        <f>F11/$F$16</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <f>E12/$E$16</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H12">
+        <f>F12/$F$16</f>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f>(G13-G11)*H13</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C13" s="5">
         <v>60</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D13" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="E13" s="10">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <f>E13/$E$16</f>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>F13/$F$16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7">
+        <f>AVERAGE(C2:C13)</f>
+        <v>66.375</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8">
+        <f>STDEVP(C2:C13)</f>
+        <v>4.1489205423419078</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4">
+        <v>6</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="4">
+        <f>SUM(I3:I14)</f>
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
-        <f>E2/$E$16</f>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>4.0514952310069061</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34:J46" si="0">H34/H$46</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ref="K34:K46" si="1">G34/G$46</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H2" s="2">
-        <f>F2/$F$16</f>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1.6459458735212482</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
         <v>0</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3">
-        <v>62</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G13" si="0">E3/$E$16</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H13" si="1">F3/$F$16</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
-        <v>62.5</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="J35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="11">
-        <v>2</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>63</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>3</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>64</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="K35">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>65</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>4</v>
-      </c>
-      <c r="F7" s="11">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>66</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11">
-        <v>4</v>
-      </c>
-      <c r="F8" s="11">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>68</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>5</v>
-      </c>
-      <c r="F9" s="11">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3">
-        <v>70</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11">
-        <v>5</v>
-      </c>
-      <c r="F10" s="11">
-        <v>4</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3">
-        <v>71</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>6</v>
-      </c>
-      <c r="F11" s="11">
-        <v>4</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>72</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11">
-        <v>6</v>
-      </c>
-      <c r="F12" s="11">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
-        <v>73</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11">
-        <v>6</v>
-      </c>
-      <c r="F13" s="11">
-        <v>6</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="9">
-        <f>AVERAGE(C2:C13)</f>
-        <v>66.375</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="10">
-        <f>STDEVP(C2:C13)</f>
-        <v>4.1489205423419078</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6">
-        <v>6</v>
-      </c>
-      <c r="F16" s="6">
-        <v>6</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="5"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="5"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="5"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="5"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="5"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="5"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="5"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="5"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="5"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="5"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="5"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="5"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>4.0514952310069061</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <f t="shared" ref="J34:J46" si="2">H34/H$46</f>
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <f t="shared" ref="K34:K46" si="3">G34/G$46</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" s="6">
-        <v>1.6459458735212482</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
       <c r="L35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>6</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>0.76444470407142306</v>
       </c>
       <c r="D36">
@@ -3445,11 +3246,11 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="L36" t="s">
@@ -3460,11 +3261,11 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>4</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="4">
         <v>0.50512496440479904</v>
       </c>
       <c r="D37">
@@ -3477,19 +3278,19 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="4">
         <v>0.39951061591408121</v>
       </c>
       <c r="D38">
@@ -3502,22 +3303,22 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="L38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>3</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="4">
         <v>0.27560307666132211</v>
       </c>
       <c r="D39">
@@ -3530,11 +3331,11 @@
         <v>2</v>
       </c>
       <c r="J39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="L39" t="s">
@@ -3545,11 +3346,11 @@
         <v>0.1411</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>10</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="4">
         <v>0.20318084489421906</v>
       </c>
       <c r="D40">
@@ -3562,19 +3363,19 @@
         <v>3</v>
       </c>
       <c r="J40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="K40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>11</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="4">
         <v>-1.2348680521726394</v>
       </c>
       <c r="D41">
@@ -3587,22 +3388,22 @@
         <v>3</v>
       </c>
       <c r="J41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="K41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="L41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>7</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="4">
         <v>-1.2646659040957866</v>
       </c>
       <c r="D42">
@@ -3615,11 +3416,11 @@
         <v>4</v>
       </c>
       <c r="J42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="L42" t="s">
@@ -3630,11 +3431,11 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>8</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="4">
         <v>-1.3174730783411457</v>
       </c>
       <c r="D43">
@@ -3647,19 +3448,19 @@
         <v>4</v>
       </c>
       <c r="J43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K43">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>9</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="4">
         <v>-1.3702802525865043</v>
       </c>
       <c r="D44">
@@ -3672,19 +3473,19 @@
         <v>5</v>
       </c>
       <c r="J44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="K44">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>12</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="4">
         <v>-2.6580180232779247</v>
       </c>
       <c r="D45">
@@ -3697,16 +3498,16 @@
         <v>6</v>
       </c>
       <c r="J45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D46" s="6"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D46" s="4"/>
       <c r="G46">
         <v>6</v>
       </c>
@@ -3714,11 +3515,11 @@
         <v>6</v>
       </c>
       <c r="J46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L46" t="s">
@@ -3729,14 +3530,14 @@
         <v>0.80610000000000004</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:D13">
-    <sortCondition ref="C2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I13">
+    <sortCondition descending="1" ref="C2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -3750,16 +3551,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:N16"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -3791,7 +3592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -3825,7 +3626,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>10</v>
       </c>
@@ -3862,7 +3663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>7</v>
       </c>
@@ -3903,7 +3704,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2</v>
       </c>
@@ -3937,7 +3738,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -3978,7 +3779,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>4</v>
       </c>
@@ -4012,7 +3813,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>5</v>
       </c>
@@ -4053,7 +3854,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>3</v>
       </c>
@@ -4087,7 +3888,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
@@ -4128,7 +3929,7 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11</v>
       </c>
@@ -4162,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>9</v>
       </c>
@@ -4196,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>12</v>
       </c>
@@ -4230,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H16">
         <v>6</v>
       </c>
@@ -4239,7 +4040,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B4:K16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K16">
     <sortCondition descending="1" ref="G4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
